--- a/数据.xlsx
+++ b/数据.xlsx
@@ -383,11 +383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="289185440"/>
-        <c:axId val="289553872"/>
+        <c:axId val="376126272"/>
+        <c:axId val="376126832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="289185440"/>
+        <c:axId val="376126272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +430,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289553872"/>
+        <c:crossAx val="376126832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -438,7 +438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289553872"/>
+        <c:axId val="376126832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289185440"/>
+        <c:crossAx val="376126272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1223,11 +1223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464625088"/>
-        <c:axId val="464623968"/>
+        <c:axId val="377090944"/>
+        <c:axId val="377091504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="464625088"/>
+        <c:axId val="377090944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1270,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464623968"/>
+        <c:crossAx val="377091504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,7 +1278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464623968"/>
+        <c:axId val="377091504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464625088"/>
+        <c:crossAx val="377090944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2119,11 +2119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469326544"/>
-        <c:axId val="469336624"/>
+        <c:axId val="377096544"/>
+        <c:axId val="377097104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="469326544"/>
+        <c:axId val="377096544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2166,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469336624"/>
+        <c:crossAx val="377097104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2174,7 +2174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="469336624"/>
+        <c:axId val="377097104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2225,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469326544"/>
+        <c:crossAx val="377096544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4008,16 +4008,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4358,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
